--- a/open_interes_volume.xlsx
+++ b/open_interes_volume.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>коэф</t>
+  </si>
+  <si>
+    <t>апрель</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -169,6 +172,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -234,7 +240,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -451,11 +456,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1467007616"/>
-        <c:axId val="-1467020672"/>
+        <c:axId val="1614737824"/>
+        <c:axId val="1614740000"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1467007616"/>
+        <c:axId val="1614737824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,14 +503,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467020672"/>
+        <c:crossAx val="1614740000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1467020672"/>
+        <c:axId val="1614740000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +561,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467007616"/>
+        <c:crossAx val="1614737824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -642,7 +647,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1943,8 +1947,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1467016320"/>
-        <c:axId val="-1467019584"/>
+        <c:axId val="1614747072"/>
+        <c:axId val="1614750880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2025,7 +2029,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1467016320"/>
+        <c:axId val="1614747072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2069,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467019584"/>
+        <c:crossAx val="1614750880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2073,7 +2077,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1467019584"/>
+        <c:axId val="1614750880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2125,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467016320"/>
+        <c:crossAx val="1614747072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,7 +2189,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3013,11 +3016,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1467015776"/>
-        <c:axId val="-1467014688"/>
+        <c:axId val="1614745984"/>
+        <c:axId val="1614749248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1467015776"/>
+        <c:axId val="1614745984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3063,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467014688"/>
+        <c:crossAx val="1614749248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3068,7 +3071,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1467014688"/>
+        <c:axId val="1614749248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3122,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467015776"/>
+        <c:crossAx val="1614745984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4774,11 +4777,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1467017408"/>
-        <c:axId val="-1467013600"/>
+        <c:axId val="1614738912"/>
+        <c:axId val="1614749792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1467017408"/>
+        <c:axId val="1614738912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,7 +4821,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467013600"/>
+        <c:crossAx val="1614749792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4826,7 +4829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1467013600"/>
+        <c:axId val="1614749792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4874,7 +4877,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467017408"/>
+        <c:crossAx val="1614738912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4964,7 +4967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5775,162 +5777,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>09.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="22"/>
-          <c:order val="22"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="23"/>
-          <c:order val="23"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5941,11 +5787,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1467019040"/>
-        <c:axId val="-1467013056"/>
+        <c:axId val="1614741632"/>
+        <c:axId val="1614743264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1467019040"/>
+        <c:axId val="1614741632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,7 +5834,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467013056"/>
+        <c:crossAx val="1614743264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5996,7 +5842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1467013056"/>
+        <c:axId val="1614743264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6047,7 +5893,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467019040"/>
+        <c:crossAx val="1614741632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6947,162 +6793,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>09.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$I$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$I$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="22"/>
-          <c:order val="22"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$I$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="23"/>
-          <c:order val="23"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$69</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12.03.2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$I$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7113,11 +6803,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1467010336"/>
-        <c:axId val="-1467670144"/>
+        <c:axId val="1614736736"/>
+        <c:axId val="1614743808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1467010336"/>
+        <c:axId val="1614736736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7160,7 +6850,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467670144"/>
+        <c:crossAx val="1614743808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7168,7 +6858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1467670144"/>
+        <c:axId val="1614743808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7219,7 +6909,2204 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1467010336"/>
+        <c:crossAx val="1614736736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OI</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-8026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>09.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-13545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-9271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-7215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>02.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>03.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1614543456"/>
+        <c:axId val="1614538560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1614543456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614538560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1614538560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614543456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vol</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47612489063867014"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-9125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>09.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-7443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-10263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-8873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.03.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>02.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>03.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1614539104"/>
+        <c:axId val="1614540736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1614539104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614540736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1614540736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614539104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7508,6 +9395,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9956,6 +11923,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10583,15 +13556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10613,15 +13586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10635,6 +13608,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10930,10 +13963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12160,7 +15193,7 @@
         <v>99728</v>
       </c>
       <c r="E47" s="16">
-        <f t="shared" ref="E47:E69" si="4">C47-D47</f>
+        <f t="shared" ref="E47:E65" si="4">C47-D47</f>
         <v>665</v>
       </c>
       <c r="F47" s="12"/>
@@ -12594,7 +15627,7 @@
         <v>115083</v>
       </c>
       <c r="E64" s="16">
-        <f t="shared" si="4"/>
+        <f>C64-D64</f>
         <v>5081</v>
       </c>
       <c r="F64" s="12"/>
@@ -12609,7 +15642,7 @@
         <v>-13433</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>42069</v>
       </c>
@@ -12627,75 +15660,476 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>42069</v>
+      </c>
+      <c r="C77" s="14">
+        <v>37511</v>
+      </c>
+      <c r="D77" s="15">
+        <v>45537</v>
+      </c>
+      <c r="E77" s="16">
+        <f>C77-D77</f>
+        <v>-8026</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="14">
+        <v>11048</v>
+      </c>
+      <c r="H77" s="15">
+        <v>20173</v>
+      </c>
+      <c r="I77" s="16">
+        <f>G77-H77</f>
+        <v>-9125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
         <v>42072</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16">
-        <f t="shared" si="4"/>
+      <c r="C78" s="14">
+        <v>39106</v>
+      </c>
+      <c r="D78" s="15">
+        <v>52651</v>
+      </c>
+      <c r="E78" s="16">
+        <f t="shared" ref="E78:E98" si="6">C78-D78</f>
+        <v>-13545</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="14">
+        <v>6612</v>
+      </c>
+      <c r="H78" s="15">
+        <v>14055</v>
+      </c>
+      <c r="I78" s="16">
+        <f t="shared" ref="I78:I98" si="7">G78-H78</f>
+        <v>-7443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>42073</v>
+      </c>
+      <c r="C79" s="14">
+        <v>46431</v>
+      </c>
+      <c r="D79" s="15">
+        <v>55702</v>
+      </c>
+      <c r="E79" s="16">
+        <f t="shared" si="6"/>
+        <v>-9271</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="14">
+        <v>17996</v>
+      </c>
+      <c r="H79" s="15">
+        <v>28259</v>
+      </c>
+      <c r="I79" s="16">
+        <f t="shared" si="7"/>
+        <v>-10263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>42074</v>
+      </c>
+      <c r="C80" s="14">
+        <v>50605</v>
+      </c>
+      <c r="D80" s="15">
+        <v>57820</v>
+      </c>
+      <c r="E80" s="16">
+        <f t="shared" si="6"/>
+        <v>-7215</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="14">
+        <v>14358</v>
+      </c>
+      <c r="H80" s="15">
+        <v>23231</v>
+      </c>
+      <c r="I80" s="16">
+        <f t="shared" si="7"/>
+        <v>-8873</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>42075</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="16">
-        <f>G66-H66</f>
+      <c r="F81" s="12"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="1">
-        <v>42073</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16">
-        <f t="shared" si="4"/>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>42076</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16">
-        <f>G67-H67</f>
+      <c r="F82" s="12"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="1">
-        <v>42074</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="16">
-        <f t="shared" si="4"/>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>42079</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16">
-        <f t="shared" ref="I67:I69" si="6">G68-H68</f>
+      <c r="F83" s="12"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
-        <v>42075</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16">
-        <f t="shared" si="4"/>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>42080</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="16">
+      <c r="F84" s="12"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>42081</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>42082</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>42083</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>42086</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>42087</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>42088</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="12"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>42089</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>42090</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="12"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>42093</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>42094</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="12"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>42095</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>42096</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>42097</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>42100</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/open_interes_volume.xlsx
+++ b/open_interes_volume.xlsx
@@ -456,11 +456,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1614737824"/>
-        <c:axId val="1614740000"/>
+        <c:axId val="-132914032"/>
+        <c:axId val="-132918384"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1614737824"/>
+        <c:axId val="-132914032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,14 +503,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614740000"/>
+        <c:crossAx val="-132918384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1614740000"/>
+        <c:axId val="-132918384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +561,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614737824"/>
+        <c:crossAx val="-132914032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,8 +1947,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1614747072"/>
-        <c:axId val="1614750880"/>
+        <c:axId val="-132905328"/>
+        <c:axId val="-132903696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2029,7 +2029,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1614747072"/>
+        <c:axId val="-132905328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2069,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614750880"/>
+        <c:crossAx val="-132903696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2077,7 +2077,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1614750880"/>
+        <c:axId val="-132903696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2125,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614747072"/>
+        <c:crossAx val="-132905328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,11 +3016,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1614745984"/>
-        <c:axId val="1614749248"/>
+        <c:axId val="-132909680"/>
+        <c:axId val="-132904784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1614745984"/>
+        <c:axId val="-132909680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3063,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614749248"/>
+        <c:crossAx val="-132904784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3071,7 +3071,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1614749248"/>
+        <c:axId val="-132904784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +3122,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614745984"/>
+        <c:crossAx val="-132909680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4777,11 +4777,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1614738912"/>
-        <c:axId val="1614749792"/>
+        <c:axId val="-132915664"/>
+        <c:axId val="-132915120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1614738912"/>
+        <c:axId val="-132915664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4821,7 +4821,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614749792"/>
+        <c:crossAx val="-132915120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4829,7 +4829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1614749792"/>
+        <c:axId val="-132915120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,7 +4877,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614738912"/>
+        <c:crossAx val="-132915664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5787,11 +5787,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1614741632"/>
-        <c:axId val="1614743264"/>
+        <c:axId val="-132909136"/>
+        <c:axId val="-137545984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1614741632"/>
+        <c:axId val="-132909136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5834,7 +5834,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614743264"/>
+        <c:crossAx val="-137545984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5842,7 +5842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1614743264"/>
+        <c:axId val="-137545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,7 +5893,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614741632"/>
+        <c:crossAx val="-132909136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6803,11 +6803,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1614736736"/>
-        <c:axId val="1614743808"/>
+        <c:axId val="-127723616"/>
+        <c:axId val="-127731232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1614736736"/>
+        <c:axId val="-127723616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6850,7 +6850,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614743808"/>
+        <c:crossAx val="-127731232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6858,7 +6858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1614743808"/>
+        <c:axId val="-127731232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6909,7 +6909,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614736736"/>
+        <c:crossAx val="-127723616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7215,7 +7215,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-5041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7252,7 +7252,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-5577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7291,7 +7291,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-7164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7330,7 +7330,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-8040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7369,7 +7369,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-4708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7408,7 +7408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-5865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7898,11 +7898,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1614543456"/>
-        <c:axId val="1614538560"/>
+        <c:axId val="-127730144"/>
+        <c:axId val="-127724160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1614543456"/>
+        <c:axId val="-127730144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7945,7 +7945,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614538560"/>
+        <c:crossAx val="-127724160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7953,7 +7953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1614538560"/>
+        <c:axId val="-127724160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,7 +8004,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614543456"/>
+        <c:crossAx val="-127730144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8317,7 +8317,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,7 +8354,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-7145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8393,7 +8393,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-5324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8432,7 +8432,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-4917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8471,7 +8471,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8510,7 +8510,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-6761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9000,11 +9000,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1614539104"/>
-        <c:axId val="1614540736"/>
+        <c:axId val="-127731776"/>
+        <c:axId val="-127727424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1614539104"/>
+        <c:axId val="-127731776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9047,7 +9047,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614540736"/>
+        <c:crossAx val="-127727424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9055,7 +9055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1614540736"/>
+        <c:axId val="-127727424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9106,7 +9106,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1614539104"/>
+        <c:crossAx val="-127731776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13965,8 +13965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15813,108 +15813,156 @@
       <c r="B81" s="1">
         <v>42075</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="14">
+        <v>55822</v>
+      </c>
+      <c r="D81" s="15">
+        <v>60863</v>
+      </c>
       <c r="E81" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5041</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="15"/>
+      <c r="G81" s="14">
+        <v>15174</v>
+      </c>
+      <c r="H81" s="15">
+        <v>15603</v>
+      </c>
       <c r="I81" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-429</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>42076</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
+      <c r="C82" s="14">
+        <v>58438</v>
+      </c>
+      <c r="D82" s="15">
+        <v>64015</v>
+      </c>
       <c r="E82" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5577</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="15"/>
+      <c r="G82" s="14">
+        <v>12912</v>
+      </c>
+      <c r="H82" s="15">
+        <v>20057</v>
+      </c>
       <c r="I82" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-7145</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>42079</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="14">
+        <v>58585</v>
+      </c>
+      <c r="D83" s="15">
+        <v>65749</v>
+      </c>
       <c r="E83" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-7164</v>
       </c>
       <c r="F83" s="12"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="15"/>
+      <c r="G83" s="14">
+        <v>4220</v>
+      </c>
+      <c r="H83" s="15">
+        <v>9544</v>
+      </c>
       <c r="I83" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5324</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>42080</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="14">
+        <v>62820</v>
+      </c>
+      <c r="D84" s="15">
+        <v>70860</v>
+      </c>
       <c r="E84" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-8040</v>
       </c>
       <c r="F84" s="12"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="15"/>
+      <c r="G84" s="14">
+        <v>11725</v>
+      </c>
+      <c r="H84" s="15">
+        <v>16642</v>
+      </c>
       <c r="I84" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4917</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>42081</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="14">
+        <v>63860</v>
+      </c>
+      <c r="D85" s="15">
+        <v>68568</v>
+      </c>
       <c r="E85" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4708</v>
       </c>
       <c r="F85" s="12"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="15"/>
+      <c r="G85" s="14">
+        <v>20489</v>
+      </c>
+      <c r="H85" s="15">
+        <v>13750</v>
+      </c>
       <c r="I85" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>42082</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="14">
+        <v>63613</v>
+      </c>
+      <c r="D86" s="15">
+        <v>69478</v>
+      </c>
       <c r="E86" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5865</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="15"/>
+      <c r="G86" s="14">
+        <v>11953</v>
+      </c>
+      <c r="H86" s="15">
+        <v>18714</v>
+      </c>
       <c r="I86" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-6761</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">

--- a/open_interes_volume.xlsx
+++ b/open_interes_volume.xlsx
@@ -456,11 +456,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-132914032"/>
-        <c:axId val="-132918384"/>
+        <c:axId val="-168820336"/>
+        <c:axId val="-168819792"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-132914032"/>
+        <c:axId val="-168820336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,14 +503,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132918384"/>
+        <c:crossAx val="-168819792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-132918384"/>
+        <c:axId val="-168819792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +561,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132914032"/>
+        <c:crossAx val="-168820336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,8 +1947,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-132905328"/>
-        <c:axId val="-132903696"/>
+        <c:axId val="-168823056"/>
+        <c:axId val="-168819248"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2029,7 +2029,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-132905328"/>
+        <c:axId val="-168823056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +2069,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132903696"/>
+        <c:crossAx val="-168819248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2077,7 +2077,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-132903696"/>
+        <c:axId val="-168819248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2125,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132905328"/>
+        <c:crossAx val="-168823056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,6 +2189,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3016,11 +3017,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-132909680"/>
-        <c:axId val="-132904784"/>
+        <c:axId val="-168814896"/>
+        <c:axId val="-168814352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-132909680"/>
+        <c:axId val="-168814896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3064,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132904784"/>
+        <c:crossAx val="-168814352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3071,7 +3072,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-132904784"/>
+        <c:axId val="-168814352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +3123,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132909680"/>
+        <c:crossAx val="-168814896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4777,11 +4778,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-132915664"/>
-        <c:axId val="-132915120"/>
+        <c:axId val="-168811632"/>
+        <c:axId val="-168811088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-132915664"/>
+        <c:axId val="-168811632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4821,7 +4822,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132915120"/>
+        <c:crossAx val="-168811088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4829,7 +4830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-132915120"/>
+        <c:axId val="-168811088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,7 +4878,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132915664"/>
+        <c:crossAx val="-168811632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4967,6 +4968,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5787,11 +5789,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-132909136"/>
-        <c:axId val="-137545984"/>
+        <c:axId val="-168820880"/>
+        <c:axId val="-453220384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-132909136"/>
+        <c:axId val="-168820880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5834,7 +5836,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-137545984"/>
+        <c:crossAx val="-453220384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5842,7 +5844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-137545984"/>
+        <c:axId val="-453220384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,7 +5895,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-132909136"/>
+        <c:crossAx val="-168820880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6803,11 +6805,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-127723616"/>
-        <c:axId val="-127731232"/>
+        <c:axId val="-170585344"/>
+        <c:axId val="-162715456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-127723616"/>
+        <c:axId val="-170585344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6850,7 +6852,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-127731232"/>
+        <c:crossAx val="-162715456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6858,7 +6860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-127731232"/>
+        <c:axId val="-162715456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6909,7 +6911,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-127723616"/>
+        <c:crossAx val="-170585344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7447,7 +7449,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-6558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7486,7 +7488,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-8236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7526,7 +7528,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-8837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,7 +7568,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-11955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7606,7 +7608,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-13219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7646,7 +7648,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-14944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7686,7 +7688,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-14338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7726,7 +7728,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-11058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7765,7 +7767,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-9452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7898,11 +7900,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-127730144"/>
-        <c:axId val="-127724160"/>
+        <c:axId val="-162718720"/>
+        <c:axId val="-162716000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-127730144"/>
+        <c:axId val="-162718720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7945,7 +7947,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-127724160"/>
+        <c:crossAx val="-162716000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7953,7 +7955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-127724160"/>
+        <c:axId val="-162716000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,7 +8006,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-127730144"/>
+        <c:crossAx val="-162718720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8549,7 +8551,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8588,7 +8590,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-6131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8628,7 +8630,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-13799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8668,7 +8670,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-10162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8708,7 +8710,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-10794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8748,7 +8750,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-10636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8788,7 +8790,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8828,7 +8830,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-12294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8867,7 +8869,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-1815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9000,11 +9002,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-127731776"/>
-        <c:axId val="-127727424"/>
+        <c:axId val="-162714368"/>
+        <c:axId val="-162710560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-127731776"/>
+        <c:axId val="-162714368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9047,7 +9049,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-127727424"/>
+        <c:crossAx val="-162710560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9055,7 +9057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-127727424"/>
+        <c:axId val="-162710560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9106,7 +9108,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-127731776"/>
+        <c:crossAx val="-162714368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13965,8 +13967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15969,162 +15971,234 @@
       <c r="B87" s="1">
         <v>42083</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="14">
+        <v>64014</v>
+      </c>
+      <c r="D87" s="15">
+        <v>70572</v>
+      </c>
       <c r="E87" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-6558</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="15"/>
+      <c r="G87" s="14">
+        <v>16742</v>
+      </c>
+      <c r="H87" s="15">
+        <v>14536</v>
+      </c>
       <c r="I87" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>42086</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="14">
+        <v>65072</v>
+      </c>
+      <c r="D88" s="15">
+        <v>73308</v>
+      </c>
       <c r="E88" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-8236</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="15"/>
+      <c r="G88" s="14">
+        <v>14870</v>
+      </c>
+      <c r="H88" s="15">
+        <v>21001</v>
+      </c>
       <c r="I88" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-6131</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>42087</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="14">
+        <v>65948</v>
+      </c>
+      <c r="D89" s="15">
+        <v>74785</v>
+      </c>
       <c r="E89" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-8837</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="15"/>
+      <c r="G89" s="14">
+        <v>8013</v>
+      </c>
+      <c r="H89" s="15">
+        <v>21812</v>
+      </c>
       <c r="I89" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-13799</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>42088</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
+      <c r="C90" s="14">
+        <v>67795</v>
+      </c>
+      <c r="D90" s="15">
+        <v>79750</v>
+      </c>
       <c r="E90" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-11955</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="15"/>
+      <c r="G90" s="14">
+        <v>7335</v>
+      </c>
+      <c r="H90" s="15">
+        <v>17497</v>
+      </c>
       <c r="I90" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-10162</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>42089</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="14">
+        <v>67753</v>
+      </c>
+      <c r="D91" s="15">
+        <v>80972</v>
+      </c>
       <c r="E91" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-13219</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="15"/>
+      <c r="G91" s="14">
+        <v>5496</v>
+      </c>
+      <c r="H91" s="15">
+        <v>16290</v>
+      </c>
       <c r="I91" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-10794</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>42090</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="14">
+        <v>68626</v>
+      </c>
+      <c r="D92" s="15">
+        <v>83570</v>
+      </c>
       <c r="E92" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-14944</v>
       </c>
       <c r="F92" s="12"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="15"/>
+      <c r="G92" s="14">
+        <v>7822</v>
+      </c>
+      <c r="H92" s="15">
+        <v>18458</v>
+      </c>
       <c r="I92" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-10636</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>42093</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
+      <c r="C93" s="14">
+        <v>69109</v>
+      </c>
+      <c r="D93" s="15">
+        <v>83447</v>
+      </c>
       <c r="E93" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-14338</v>
       </c>
       <c r="F93" s="12"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="15"/>
+      <c r="G93" s="14">
+        <v>5062</v>
+      </c>
+      <c r="H93" s="15">
+        <v>8480</v>
+      </c>
       <c r="I93" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3418</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>42094</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="15"/>
+      <c r="C94" s="14">
+        <v>70936</v>
+      </c>
+      <c r="D94" s="15">
+        <v>81994</v>
+      </c>
       <c r="E94" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-11058</v>
       </c>
       <c r="F94" s="12"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="15"/>
+      <c r="G94" s="14">
+        <v>9391</v>
+      </c>
+      <c r="H94" s="15">
+        <v>21685</v>
+      </c>
       <c r="I94" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>G94-H94</f>
+        <v>-12294</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>42095</v>
       </c>
-      <c r="C95" s="14"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="14">
+        <v>71857</v>
+      </c>
+      <c r="D95" s="15">
+        <v>81309</v>
+      </c>
       <c r="E95" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-9452</v>
       </c>
       <c r="F95" s="12"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="15"/>
+      <c r="G95" s="14">
+        <v>9144</v>
+      </c>
+      <c r="H95" s="15">
+        <v>10959</v>
+      </c>
       <c r="I95" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1815</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">

--- a/open_interes_volume.xlsx
+++ b/open_interes_volume.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Data</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>апрель</t>
+  </si>
+  <si>
+    <t>май</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -175,6 +178,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,11 +471,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-168820336"/>
-        <c:axId val="-168819792"/>
+        <c:axId val="-1001994400"/>
+        <c:axId val="-1001997120"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-168820336"/>
+        <c:axId val="-1001994400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,14 +518,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168819792"/>
+        <c:crossAx val="-1001997120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-168819792"/>
+        <c:axId val="-1001997120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +576,1180 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168820336"/>
+        <c:crossAx val="-1001994400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VOL</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>07.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>08.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>09.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>04.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>07.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-869102624"/>
+        <c:axId val="-869102080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-869102624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-869102080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-869102080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-869102624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,8 +3135,8 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-168823056"/>
-        <c:axId val="-168819248"/>
+        <c:axId val="-1002003104"/>
+        <c:axId val="-1001999840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2029,7 +3217,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-168823056"/>
+        <c:axId val="-1002003104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +3257,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168819248"/>
+        <c:crossAx val="-1001999840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2077,7 +3265,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-168819248"/>
+        <c:axId val="-1001999840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +3313,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168823056"/>
+        <c:crossAx val="-1002003104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,7 +3377,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3017,11 +4204,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-168814896"/>
-        <c:axId val="-168814352"/>
+        <c:axId val="-1001998208"/>
+        <c:axId val="-1001998752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-168814896"/>
+        <c:axId val="-1001998208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +4251,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168814352"/>
+        <c:crossAx val="-1001998752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3072,7 +4259,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-168814352"/>
+        <c:axId val="-1001998752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +4310,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168814896"/>
+        <c:crossAx val="-1001998208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4778,11 +5965,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-168811632"/>
-        <c:axId val="-168811088"/>
+        <c:axId val="-1001992224"/>
+        <c:axId val="-1001993856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-168811632"/>
+        <c:axId val="-1001992224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,7 +6009,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168811088"/>
+        <c:crossAx val="-1001993856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4830,7 +6017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-168811088"/>
+        <c:axId val="-1001993856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,7 +6065,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168811632"/>
+        <c:crossAx val="-1001992224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4968,7 +6155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5789,11 +6975,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-168820880"/>
-        <c:axId val="-453220384"/>
+        <c:axId val="-1001991136"/>
+        <c:axId val="-1001990592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-168820880"/>
+        <c:axId val="-1001991136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5836,7 +7022,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-453220384"/>
+        <c:crossAx val="-1001990592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5844,7 +7030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-453220384"/>
+        <c:axId val="-1001990592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5895,7 +7081,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-168820880"/>
+        <c:crossAx val="-1001991136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6805,11 +7991,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-170585344"/>
-        <c:axId val="-162715456"/>
+        <c:axId val="-1002002560"/>
+        <c:axId val="-1002001472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-170585344"/>
+        <c:axId val="-1002002560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6852,7 +8038,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-162715456"/>
+        <c:crossAx val="-1002001472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6860,7 +8046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-162715456"/>
+        <c:axId val="-1002001472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6911,7 +8097,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-170585344"/>
+        <c:crossAx val="-1002002560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7900,11 +9086,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-162718720"/>
-        <c:axId val="-162716000"/>
+        <c:axId val="-1003649216"/>
+        <c:axId val="-995903264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-162718720"/>
+        <c:axId val="-1003649216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7947,7 +9133,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-162716000"/>
+        <c:crossAx val="-995903264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7955,7 +9141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-162716000"/>
+        <c:axId val="-995903264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8006,7 +9192,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-162718720"/>
+        <c:crossAx val="-1003649216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9002,11 +10188,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-162714368"/>
-        <c:axId val="-162710560"/>
+        <c:axId val="-995894560"/>
+        <c:axId val="-995904352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-162714368"/>
+        <c:axId val="-995894560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9049,7 +10235,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-162710560"/>
+        <c:crossAx val="-995904352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9057,7 +10243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-162710560"/>
+        <c:axId val="-995904352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9108,7 +10294,1180 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-162714368"/>
+        <c:crossAx val="-995894560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OI</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-15903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>07.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-16613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>08.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-15256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>09.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-13511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-13631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>04.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$124</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>06.05.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>07.04.2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-878477680"/>
+        <c:axId val="-878465712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-878477680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-878465712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-878465712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-878477680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9158,6 +11517,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9477,6 +11876,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9980,28 +12419,34 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10016,7 +12461,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10024,7 +12469,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10032,14 +12477,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -10048,8 +12496,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -10072,35 +12521,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10109,32 +12558,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10150,16 +12600,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10193,17 +12648,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -10212,14 +12667,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10231,20 +12686,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10258,99 +12719,96 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10358,17 +12816,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -10377,9 +12835,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10388,14 +12849,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10404,7 +12865,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -10413,7 +12877,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10434,7 +12898,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -10443,40 +12910,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10491,7 +12958,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10499,7 +12966,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10507,17 +12974,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -10526,9 +12990,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -10551,35 +13014,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10588,33 +13051,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10630,21 +13092,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10678,17 +13135,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -10697,14 +13154,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10716,26 +13173,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10749,96 +13200,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10846,17 +13300,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -10865,12 +13319,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10879,14 +13330,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10895,10 +13346,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -10907,7 +13355,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10928,52 +13376,49 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10988,7 +13433,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10996,7 +13441,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11004,14 +13449,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -11020,8 +13468,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -11044,35 +13493,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11081,32 +13530,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11122,16 +13572,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11165,17 +13620,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -11184,14 +13639,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11203,20 +13658,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11230,99 +13691,96 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -11330,17 +13788,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -11349,9 +13807,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11360,14 +13821,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11376,7 +13837,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -11385,7 +13849,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11406,7 +13870,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -11415,40 +13882,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11463,7 +13930,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11471,7 +13938,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11479,17 +13946,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -11498,9 +13962,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -11523,35 +13986,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11560,33 +14023,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11602,21 +14064,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11650,17 +14107,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -11669,14 +14126,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11688,26 +14145,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11721,96 +14172,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -11818,17 +14272,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -11837,12 +14291,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11851,14 +14302,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11867,10 +14318,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -11879,7 +14327,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11900,10 +14348,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -11912,19 +14357,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12427,7 +14866,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12930,7 +15369,1013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13648,15 +17093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13670,6 +17115,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13965,10 +17470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16219,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>42097</v>
       </c>
@@ -16237,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>42100</v>
       </c>
@@ -16252,6 +19757,483 @@
       <c r="H98" s="15"/>
       <c r="I98" s="16">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>42100</v>
+      </c>
+      <c r="C102" s="19">
+        <v>40564</v>
+      </c>
+      <c r="D102" s="15">
+        <v>56467</v>
+      </c>
+      <c r="E102" s="16">
+        <f>C102-D102</f>
+        <v>-15903</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="14">
+        <v>6227</v>
+      </c>
+      <c r="H102" s="15">
+        <v>6991</v>
+      </c>
+      <c r="I102" s="16">
+        <f>G102-H102</f>
+        <v>-764</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>42101</v>
+      </c>
+      <c r="C103" s="19">
+        <v>44180</v>
+      </c>
+      <c r="D103" s="20">
+        <v>60793</v>
+      </c>
+      <c r="E103" s="21">
+        <f t="shared" ref="E103:E125" si="8">C103-D103</f>
+        <v>-16613</v>
+      </c>
+      <c r="F103" s="22"/>
+      <c r="G103" s="19">
+        <v>13467</v>
+      </c>
+      <c r="H103" s="20">
+        <v>10323</v>
+      </c>
+      <c r="I103" s="21">
+        <f t="shared" ref="I103:I125" si="9">G103-H103</f>
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>42102</v>
+      </c>
+      <c r="C104" s="19">
+        <v>45348</v>
+      </c>
+      <c r="D104" s="20">
+        <v>60604</v>
+      </c>
+      <c r="E104" s="21">
+        <f t="shared" si="8"/>
+        <v>-15256</v>
+      </c>
+      <c r="F104" s="22"/>
+      <c r="G104" s="19">
+        <v>10003</v>
+      </c>
+      <c r="H104" s="20">
+        <v>9171</v>
+      </c>
+      <c r="I104" s="21">
+        <f t="shared" si="9"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>42103</v>
+      </c>
+      <c r="C105" s="19">
+        <v>47317</v>
+      </c>
+      <c r="D105" s="20">
+        <v>60828</v>
+      </c>
+      <c r="E105" s="21">
+        <f t="shared" si="8"/>
+        <v>-13511</v>
+      </c>
+      <c r="F105" s="22"/>
+      <c r="G105" s="19">
+        <v>21923</v>
+      </c>
+      <c r="H105" s="20">
+        <v>13332</v>
+      </c>
+      <c r="I105" s="21">
+        <f t="shared" si="9"/>
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>42104</v>
+      </c>
+      <c r="C106" s="19">
+        <v>49352</v>
+      </c>
+      <c r="D106" s="20">
+        <v>62983</v>
+      </c>
+      <c r="E106" s="21">
+        <f t="shared" si="8"/>
+        <v>-13631</v>
+      </c>
+      <c r="F106" s="22"/>
+      <c r="G106" s="19">
+        <v>14962</v>
+      </c>
+      <c r="H106" s="20">
+        <v>15585</v>
+      </c>
+      <c r="I106" s="21">
+        <f t="shared" si="9"/>
+        <v>-623</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>42107</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="22"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>42108</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="22"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>42109</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="22"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>42110</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="22"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>42111</v>
+      </c>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="22"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>42114</v>
+      </c>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="22"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>42115</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="22"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>42116</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="22"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>42117</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="22"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>42118</v>
+      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="22"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>42121</v>
+      </c>
+      <c r="C117" s="19"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="22"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>42122</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="22"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>42123</v>
+      </c>
+      <c r="C119" s="19"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="22"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>42124</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="22"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>42125</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="22"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>42128</v>
+      </c>
+      <c r="C122" s="19"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="22"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>42129</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="22"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>42130</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="22"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>42101</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="22"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
